--- a/2-semester/physics/lab1.xlsx
+++ b/2-semester/physics/lab1.xlsx
@@ -1,24 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F186EC8F-328E-4592-989A-637BE59DBE26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD4849B-A70D-4ADB-ACCB-576917A63030}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ЛР. Определ. циклич. частоты ко" sheetId="1" r:id="rId1"/>
+    <sheet name="Определ. циклич. частоты колеба" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -73,9 +68,6 @@
     <t>Масса груза, кг</t>
   </si>
   <si>
-    <t>Лабораторная работа. Определение цикличесеской частоты колебания тела на пружине</t>
-  </si>
-  <si>
     <t>Абсолютная погрешность ꙍ, рад/с</t>
   </si>
   <si>
@@ -117,6 +109,9 @@
       </rPr>
       <t>, м</t>
     </r>
+  </si>
+  <si>
+    <t>Лабораторная работа№  1. Определение цикличесеской частоты колебания тела на пружине</t>
   </si>
 </sst>
 </file>
@@ -193,7 +188,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -216,11 +211,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -243,9 +251,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -263,7 +274,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -315,7 +326,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ЛР. Определ. циклич. частоты ко'!$F$4</c:f>
+              <c:f>'Определ. циклич. частоты колеба'!$F$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -401,11 +412,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'ЛР. Определ. циклич. частоты ко'!$F$5:$F$16</c15:sqref>
+                    <c15:sqref>'Определ. циклич. частоты колеба'!$F$5:$F$16</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'ЛР. Определ. циклич. частоты ко'!$F$6:$F$16</c:f>
+              <c:f>'Определ. циклич. частоты колеба'!$F$6:$F$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -619,7 +630,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -722,7 +733,7 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'ЛР. Определ. циклич. частоты ко'!$C$6:$C$16</c:f>
+              <c:f>'Определ. циклич. частоты колеба'!$C$6:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -764,7 +775,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ЛР. Определ. циклич. частоты ко'!$D$5:$D$16</c:f>
+              <c:f>'Определ. циклич. частоты колеба'!$D$5:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2432,24 +2443,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.109375" customWidth="1"/>
-    <col min="6" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" customWidth="1"/>
-    <col min="10" max="11" width="33.5546875" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="6" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="10" max="11" width="33.5703125" customWidth="1"/>
     <col min="12" max="12" width="30" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
@@ -2458,16 +2467,17 @@
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
     </row>
-    <row r="4" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2475,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>5</v>
@@ -2490,13 +2500,13 @@
         <v>4</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="4" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>1</v>
       </c>
@@ -2525,7 +2535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>2</v>
       </c>
@@ -2560,7 +2570,7 @@
         <v>6.8736140418020373</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>3</v>
       </c>
@@ -2594,7 +2604,7 @@
         <v>15.748595891779754</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>4</v>
       </c>
@@ -2628,7 +2638,7 @@
         <v>3.2411454905603794</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>5</v>
       </c>
@@ -2662,7 +2672,7 @@
         <v>8.5890676911917563</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>6</v>
       </c>
@@ -2696,7 +2706,7 @@
         <v>4.4168439672656943</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>7</v>
       </c>
@@ -2730,7 +2740,7 @@
         <v>12.264886636510179</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>8</v>
       </c>
@@ -2764,7 +2774,7 @@
         <v>6.2743227671916406</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>9</v>
       </c>
@@ -2798,7 +2808,7 @@
         <v>23.173621675490388</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>10</v>
       </c>
@@ -2832,7 +2842,7 @@
         <v>1.0411819641252833</v>
       </c>
     </row>
-    <row r="15" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>11</v>
       </c>
@@ -2866,7 +2876,7 @@
         <v>19.980264988898583</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>12</v>
       </c>
@@ -2900,15 +2910,15 @@
         <v>5.8662869698035021</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="D17" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17" s="4">
         <f>AVERAGE(E5:E16)</f>
@@ -2919,32 +2929,32 @@
         <v>24.402777777777782</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="4">
         <v>8.0999999999999996E-3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B1:I1"/>
     <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
